--- a/Exports/Files/BCCongChung.xlsx
+++ b/Exports/Files/BCCongChung.xlsx
@@ -16,65 +16,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
-  <si>
-    <t>A. Trần Thị Hạnh
-Trần Công Hồng</t>
-  </si>
-  <si>
-    <t>BÊN TẶNG CHO (sau đây gọi là bên A):
-Ông: Vũ Đắc Khởi                                          Sinh năm: 1955</t>
-  </si>
-  <si>
-    <t>B. Nguyễn Khắc Lâm
-Đào Thị Viên</t>
-  </si>
-  <si>
-    <t>Thuận</t>
-  </si>
-  <si>
-    <t>Ngọc</t>
-  </si>
-  <si>
-    <t>Thế chấp quyền sử dụng đất theo Giấy chứng nhận quyền sử dụng đất quyền sở hữu nhà ở và tài sản gắn liền với đất số CM 915648; thửa số 46; tờ số 41; Yên Trung, Yên Phong, BN; 100 m2
-Giá trị= 1.625.000.000</t>
-  </si>
-  <si>
-    <t>NN Tỉnh</t>
-  </si>
-  <si>
-    <t>B. Ngân hàng TMPC Việt Nam Thịnh Vượng (VP BANK) - CN BN</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1333660</t>
-  </si>
-  <si>
-    <t>Giấy chứng nhận quyền sử dụng đất, quyền sở hữu nhà ở và tài sản khác gắn liền với đất số: BU 908776 
-- Thửa đất số: 244    - Tờ bản đồ số: 9
-- Địa chỉ thửa đất: phường Khắc Niệm, thành phố Bắc Ninh, tỉnh Bắc Ninh.
-- Diện tích: 291 m2 (bằng chữ: Hai trăm chín mươi một mét vuông)</t>
-  </si>
-  <si>
-    <t>Thông tin bên B</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>706201</t>
-  </si>
-  <si>
-    <t>VBCN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
+  <si>
+    <t>03/01/2020</t>
   </si>
   <si>
     <t>Chuyển nhượng Hợp đồng mua bán căn hộ chung cư số R0225/HĐMB
 Giá trị= 706.200.853</t>
   </si>
   <si>
-    <t>NV làm</t>
+    <t>VCB</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Không có nội dung</t>
+  </si>
+  <si>
+    <t>HĐ thế chấp</t>
+  </si>
+  <si>
+    <t>Thế chấp thửa đất theo giấy chứng nhận quyền sử dụng đất, quyền sở hữu nhà ở và tài sản khác gắn liền với đất số CT 278875 do sở tài nguyên và môi trường Bắc Ninh cấp ngày 04/12/2019, số vào sổ cấp GCN số CS02913 cụ thể như sau: Thửa đất số 742, tờ bản đồ số 18, DT= 150 m2</t>
+  </si>
+  <si>
+    <t>A. Nguyễn Văn Phái</t>
+  </si>
+  <si>
+    <t>Ngọc</t>
+  </si>
+  <si>
+    <t>Thông tin bên A</t>
+  </si>
+  <si>
+    <t>A. Ngân hàng TMCP Việt Nam Thịnh Vượng - Chi nhánh Bắc Ninh</t>
+  </si>
+  <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>Phí công chứng</t>
+  </si>
+  <si>
+    <t>BÊN ĐƯỢC TẶNG CHO (sau đây gọi là bên B):
+Ông: Vũ Hoàng Long                                      Sinh năm: 1982</t>
+  </si>
+  <si>
+    <t>VBCN</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy Hoàng</t>
+  </si>
+  <si>
+    <t>Thế chấp thửa đất và tài sản gắn liền với đất theo giấy chứng nhận quyền sử dụng đất, quyền sở hữu nhà ở và tài sản khác gắn liền với đất số CT 300197 do sở tài nguyên và môi trường Bắc Ninh cấp ngày 30/12/2019, số vào sổ cấp GCN số CS08604 cụ thể như sau: Thửa đất số 389, tờ bản đồ số 60, DT= 303.8 m2</t>
+  </si>
+  <si>
+    <t>Thông tin bên B</t>
+  </si>
+  <si>
+    <t>07/01/2020</t>
+  </si>
+  <si>
+    <t>Thế chấp thửa đất theo giấy chứng nhận quyền sử dụng đất, quyền sở hữu nhà ở và tài sản khác gắn liền với đất số BU917928 do UBND huyện Quế Võ cấp ngày 02/12/2014, số vào sổ cấp GCN số CH00764/ QĐ số 3215 cụ thể như sau: Thửa đất số 26, tờ bản đồ số 33, DT= 216 m2, Cựu Tự, Ngọc Xá, Quế Võ, Bắc Ninh</t>
+  </si>
+  <si>
+    <t>NN Tỉnh</t>
+  </si>
+  <si>
+    <t>Tuấn Anh</t>
+  </si>
+  <si>
+    <t>B. Ngân hàng TMCP Ngoại Thương VN - CN Bắc Ninh - PGD Yên Phong</t>
+  </si>
+  <si>
+    <t>A. Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>Sửa không có nội dung 1</t>
+  </si>
+  <si>
+    <t>Ngày công chứng</t>
+  </si>
+  <si>
+    <t>Tóm tắt nội dung công chứng</t>
+  </si>
+  <si>
+    <t>Thế chấp quyền sử dụng đất theo Giấy chứng nhận quyền sử dụng đất quyền sở hữu nhà ở và tài sản gắn liền với đất số CM 896751; thửa số 66; tờ số 41; Yên Trung, Yên Phong, BN; 100 m2
+Giá trị= 1.729.000.000</t>
+  </si>
+  <si>
+    <t>VBTT</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Thế chấp quyền sử dụng đất theo Giấy chứng nhận quyền sử dụng đất quyền sở hữu nhà ở và tài sản gắn liền với đất số CR 607303; thửa số 545; tờ số 22; Phong Xá, Đông Phong, YP, BN; 227.3 m2
+Giá trị= 700 triệu</t>
+  </si>
+  <si>
+    <t>Số CC</t>
+  </si>
+  <si>
+    <t>Thế chấp quyền sử dụng đất theo Giấy chứng nhận quyền sử dụng đất quyền sở hữu nhà ở và tài sản gắn liền với đất số BH 724461; thửa số 95; tờ số 41; KP Đa Hội, phường Châu Khê, TX Từ Sơn, BN; 73.9 m2
+Giá trị= 384 triệu</t>
+  </si>
+  <si>
+    <t>A. Nguyễn Văn Tuyến</t>
+  </si>
+  <si>
+    <t>A. Nguyễn Thị Huyền</t>
+  </si>
+  <si>
+    <t>Giấy chứng nhận quyền sử dụng đất số: S 616099 
+- Thửa đất số: 199   - Tờ bản đồ số: 12
+- Địa chỉ thửa đất: xã Khắc Niệm, huyện Tiên Du, tỉnh Bắc Ninh ( nay là: Khắc Niệm, thành phố Bắc Ninh, tỉnh Bắc Ninh)
+- Diện tích: 369 m2 (bằng chữ: Ba trăm sáu mươi chín mét vuông)</t>
+  </si>
+  <si>
+    <t>Nguyễn Tất Thắng</t>
+  </si>
+  <si>
+    <t>A. Nguyễn Thị Hiệp
+Phan Đình Thanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phương</t>
+  </si>
+  <si>
+    <t>A. Agribank-CNBN</t>
   </si>
   <si>
     <t>I. Các thành viên hộ ông Vũ Đắc Khởi gồm có:
@@ -88,185 +158,82 @@
 7- Con đẻ là ông: Vũ Tất Biên                           Sinh năm: 1984</t>
   </si>
   <si>
-    <t>1437400</t>
+    <t>Thuận</t>
+  </si>
+  <si>
+    <t>11/01/2020</t>
+  </si>
+  <si>
+    <t>NV làm</t>
+  </si>
+  <si>
+    <t>B. Ngân hàng TMPC Việt Nam Thịnh Vượng (VP BANK) - CN BN</t>
+  </si>
+  <si>
+    <t>VC YP</t>
+  </si>
+  <si>
+    <t>B. Nguyễn Khắc Lâm
+Đào Thị Viên</t>
+  </si>
+  <si>
+    <t>B. Nguyễn Thị Đán</t>
   </si>
   <si>
     <t>09/01/2020</t>
   </si>
   <si>
-    <t>Tóm tắt nội dung công chứng</t>
-  </si>
-  <si>
-    <t>13/01/2020</t>
-  </si>
-  <si>
-    <t>1375000</t>
-  </si>
-  <si>
-    <t>B. Nguyễn Thị Đán</t>
-  </si>
-  <si>
-    <t>Thế chấp quyền sử dụng đất theo Giấy chứng nhận quyền sử dụng đất quyền sở hữu nhà ở và tài sản gắn liền với đất số BH 724461; thửa số 95; tờ số 41; KP Đa Hội, phường Châu Khê, TX Từ Sơn, BN; 73.9 m2
-Giá trị= 384 triệu</t>
-  </si>
-  <si>
-    <t>A. Nguyễn Thị Huyền</t>
-  </si>
-  <si>
-    <t>VP BANK</t>
-  </si>
-  <si>
-    <t>VBTT</t>
-  </si>
-  <si>
-    <t>A. Nguyễn Văn Nam</t>
-  </si>
-  <si>
-    <t>Phí hoa hồng</t>
+    <t>A. Công ty TNN xây dựng An Bình</t>
+  </si>
+  <si>
+    <t>BÊN TẶNG CHO (sau đây gọi là bên A):
+Ông: Vũ Đắc Khởi                                          Sinh năm: 1955</t>
   </si>
   <si>
     <t>Thế chấp quyền sử dụng đất theo Giấy chứng nhận quyền sử dụng đất quyền sở hữu nhà ở và tài sản gắn liền với đất số CM 896706; thửa số 36; tờ số 40; Yên Trung, Yên Phong, BN; 90 m2
 Giá trị= 1.556.100.000</t>
   </si>
   <si>
-    <t>Giấy chứng nhận quyền sử dụng đất số: S 616099 
-- Thửa đất số: 199   - Tờ bản đồ số: 12
-- Địa chỉ thửa đất: xã Khắc Niệm, huyện Tiên Du, tỉnh Bắc Ninh ( nay là: Khắc Niệm, thành phố Bắc Ninh, tỉnh Bắc Ninh)
-- Diện tích: 369 m2 (bằng chữ: Ba trăm sáu mươi chín mét vuông)</t>
-  </si>
-  <si>
-    <t>Thông tin bên A</t>
-  </si>
-  <si>
-    <t>Không có nội dung</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>BÊN ĐƯỢC TẶNG CHO (sau đây gọi là bên B):
-Ông: Vũ Hoàng Long                                      Sinh năm: 1982</t>
-  </si>
-  <si>
-    <t>Tuấn Anh</t>
-  </si>
-  <si>
-    <t>A. Agribank-CNBN</t>
-  </si>
-  <si>
-    <t>Nguyễn Huy Hoàng</t>
-  </si>
-  <si>
-    <t>Thế chấp thửa đất và tài sản gắn liền với đất theo giấy chứng nhận quyền sử dụng đất, quyền sở hữu nhà ở và tài sản khác gắn liền với đất số CT 300197 do sở tài nguyên và môi trường Bắc Ninh cấp ngày 30/12/2019, số vào sổ cấp GCN số CS08604 cụ thể như sau: Thửa đất số 389, tờ bản đồ số 60, DT= 303.8 m2</t>
-  </si>
-  <si>
     <t>HĐCN</t>
   </si>
   <si>
+    <t>VP BANK</t>
+  </si>
+  <si>
+    <t>Thế chấp quyền sử dụng đất theo Giấy chứng nhận quyền sử dụng đất quyền sở hữu nhà ở và tài sản gắn liền với đất số CM 915648; thửa số 46; tờ số 41; Yên Trung, Yên Phong, BN; 100 m2
+Giá trị= 1.625.000.000</t>
+  </si>
+  <si>
+    <t>Loại việc công chứng</t>
+  </si>
+  <si>
+    <t>13/01/2020</t>
+  </si>
+  <si>
     <t>Ngân hàng TMCP Việt Nam Thịnh Vượng - Chi nhánh Bắc Ninh</t>
   </si>
   <si>
-    <t>VCB</t>
-  </si>
-  <si>
-    <t>Phí công chứng</t>
-  </si>
-  <si>
-    <t>HĐ thế chấp</t>
-  </si>
-  <si>
-    <t>Thế chấp thửa đất theo giấy chứng nhận quyền sử dụng đất, quyền sở hữu nhà ở và tài sản khác gắn liền với đất số BU917928 do UBND huyện Quế Võ cấp ngày 02/12/2014, số vào sổ cấp GCN số CH00764/ QĐ số 3215 cụ thể như sau: Thửa đất số 26, tờ bản đồ số 33, DT= 216 m2, Cựu Tự, Ngọc Xá, Quế Võ, Bắc Ninh</t>
-  </si>
-  <si>
-    <t>1600000</t>
-  </si>
-  <si>
-    <t>07/01/2020</t>
-  </si>
-  <si>
-    <t>08/01/2020</t>
-  </si>
-  <si>
-    <t>VC YP</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Phương</t>
-  </si>
-  <si>
-    <t>A. Nguyễn Thị Hiệp
-Phan Đình Thanh</t>
-  </si>
-  <si>
-    <t>Thế chấp quyền sử dụng đất theo Giấy chứng nhận quyền sử dụng đất quyền sở hữu nhà ở và tài sản gắn liền với đất số CM 896751; thửa số 66; tờ số 41; Yên Trung, Yên Phong, BN; 100 m2
-Giá trị= 1.729.000.000</t>
-  </si>
-  <si>
-    <t>384000</t>
-  </si>
-  <si>
-    <t>Sửa không có nội dung 1</t>
-  </si>
-  <si>
-    <t>Thế chấp quyền sử dụng đất theo Giấy chứng nhận quyền sử dụng đất quyền sở hữu nhà ở và tài sản gắn liền với đất số CR 607303; thửa số 545; tờ số 22; Phong Xá, Đông Phong, YP, BN; 227.3 m2
-Giá trị= 700 triệu</t>
-  </si>
-  <si>
-    <t>A. Nguyễn Văn Phái</t>
-  </si>
-  <si>
-    <t>03/01/2020</t>
-  </si>
-  <si>
-    <t>A. Công ty TNN xây dựng An Bình</t>
-  </si>
-  <si>
-    <t>700000</t>
+    <t>Phí hoa hồng</t>
+  </si>
+  <si>
+    <t>A. Trần Thị Hạnh
+Trần Công Hồng</t>
+  </si>
+  <si>
+    <t>Công chứng viên ký</t>
   </si>
   <si>
     <t>Chuyển nhượng quyền sử dụng đất theo giấy chứng nhận số: CĐ 235547, thửa đất số: 37, tờ bản đồ: 29, diện tích: 511m2, địa chỉ: Phượng Mao, Quế Võ, Bắc Ninh, do UBND tỉnh Bắc Ninh cấp ngày: 09/11/2016
 Giá trị= 300 triệu đồng</t>
   </si>
   <si>
-    <t>Loại việc công chứng</t>
-  </si>
-  <si>
-    <t>Nguyễn Tất Thắng</t>
-  </si>
-  <si>
-    <t>Công chứng viên ký</t>
-  </si>
-  <si>
     <t>B. Nguyễn Đức Cương</t>
   </si>
   <si>
-    <t>B. Ngân hàng TMCP Ngoại Thương VN - CN Bắc Ninh - PGD Yên Phong</t>
-  </si>
-  <si>
-    <t>11/01/2020</t>
-  </si>
-  <si>
-    <t>618000</t>
-  </si>
-  <si>
-    <t>Khách hàng</t>
-  </si>
-  <si>
-    <t>Trang</t>
-  </si>
-  <si>
-    <t>Số CC</t>
-  </si>
-  <si>
-    <t>Thế chấp thửa đất theo giấy chứng nhận quyền sử dụng đất, quyền sở hữu nhà ở và tài sản khác gắn liền với đất số CT 278875 do sở tài nguyên và môi trường Bắc Ninh cấp ngày 04/12/2019, số vào sổ cấp GCN số CS02913 cụ thể như sau: Thửa đất số 742, tờ bản đồ số 18, DT= 150 m2</t>
-  </si>
-  <si>
-    <t>A. Ngân hàng TMCP Việt Nam Thịnh Vượng - Chi nhánh Bắc Ninh</t>
-  </si>
-  <si>
-    <t>A. Nguyễn Văn Tuyến</t>
-  </si>
-  <si>
-    <t>Ngày công chứng</t>
+    <t>Giấy chứng nhận quyền sử dụng đất, quyền sở hữu nhà ở và tài sản khác gắn liền với đất số: BU 908776 
+- Thửa đất số: 244    - Tờ bản đồ số: 9
+- Địa chỉ thửa đất: phường Khắc Niệm, thành phố Bắc Ninh, tỉnh Bắc Ninh.
+- Diện tích: 291 m2 (bằng chữ: Hai trăm chín mươi một mét vuông)</t>
   </si>
 </sst>
 </file>
@@ -770,49 +737,48 @@
   <cols>
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="7" customWidth="1"/>
+    <col min="3" max="4" width="0" style="7" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="7" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="0" style="6" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" customHeight="1">
@@ -820,34 +786,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G2" s="6">
         <v>618000</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>67</v>
+      <c r="H2" s="6">
+        <v>618000</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" customHeight="1">
@@ -855,34 +821,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="G3" s="6">
         <v>500000</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" customHeight="1">
@@ -890,34 +856,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6">
         <v>2827800</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" customHeight="1">
@@ -925,31 +891,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G5" s="6">
         <v>100000</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
+      <c r="H5" s="6">
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" customHeight="1">
@@ -957,28 +923,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G6" s="6">
         <v>50000</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
+      <c r="H6" s="6">
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" customHeight="1">
@@ -986,34 +952,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G7" s="6">
         <v>1333660</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>9</v>
+      <c r="H7" s="6">
+        <v>1333660</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" customHeight="1">
@@ -1021,34 +987,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="G8" s="6">
         <v>1437400</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
+      <c r="H8" s="6">
+        <v>1437400</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" customHeight="1">
@@ -1056,34 +1022,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6">
         <v>1375000</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>22</v>
+      <c r="H9" s="6">
+        <v>1375000</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" customHeight="1">
@@ -1091,34 +1057,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G10" s="6">
         <v>700000</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>59</v>
+      <c r="H10" s="6">
+        <v>700000</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" customHeight="1">
@@ -1126,31 +1092,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G11" s="6">
         <v>384000</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>53</v>
+      <c r="H11" s="6">
+        <v>384000</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" customHeight="1">
@@ -1158,28 +1124,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G12" s="6">
         <v>1600000</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>46</v>
+      <c r="H12" s="6">
+        <v>1600000</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" customHeight="1">
@@ -1187,25 +1153,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G13" s="6">
         <v>500100</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>34</v>
+      <c r="H13" s="6">
+        <v>500000</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" customHeight="1">
@@ -1213,31 +1179,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="6">
         <v>300000</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>12</v>
+      <c r="H14" s="6">
+        <v>300000</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" customHeight="1">
@@ -1245,31 +1211,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G15" s="6">
         <v>706202</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>13</v>
+      <c r="H15" s="6">
+        <v>706201</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
